--- a/src/controllers/Sales.xlsx
+++ b/src/controllers/Sales.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,63 +427,54 @@
         <v>Vanity</v>
       </c>
       <c r="P1" t="str">
-        <v>CallRail - SEO</v>
+        <v>Drive-By</v>
       </c>
       <c r="Q1" t="str">
-        <v>Facebook Lead Ads</v>
+        <v>Flyer</v>
       </c>
       <c r="R1" t="str">
-        <v>Flyer</v>
+        <v>Home &amp; Design Magazine</v>
       </c>
       <c r="S1" t="str">
-        <v>Google/Online</v>
+        <v>Referral - Contractor</v>
       </c>
       <c r="T1" t="str">
-        <v>Previous Customer</v>
+        <v>Referral - Customer</v>
       </c>
       <c r="U1" t="str">
-        <v>Referral - Contractor</v>
+        <v>Referral - Vendor</v>
       </c>
       <c r="V1" t="str">
-        <v>Referral - Customer</v>
+        <v>Walk-In</v>
       </c>
       <c r="W1" t="str">
-        <v>Referral - Vendor</v>
+        <v>Walk-In SEO</v>
       </c>
       <c r="X1" t="str">
-        <v>Walk-In</v>
+        <v>Web Form - SEO</v>
       </c>
       <c r="Y1" t="str">
-        <v>Walk-In SEO</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>Web Form - SEO</v>
-      </c>
-      <c r="AA1" t="str">
         <v>Website Chat</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>null</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>November-2019</v>
+        <v>January-2020</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>522549.0699999999</v>
+        <v>111980.59000000001</v>
       </c>
       <c r="E2">
-        <v>8164.829218749998</v>
+        <v>9331.715833333334</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G2" t="str">
         <v/>
@@ -491,74 +482,65 @@
     </row>
     <row r="3">
       <c r="H3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>6</v>
-      </c>
-      <c r="N3">
-        <v>9</v>
-      </c>
       <c r="O3">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="P4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="W4">
         <v>4</v>
       </c>
       <c r="X4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="Y4">
-        <v>11</v>
-      </c>
-      <c r="Z4">
-        <v>22</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AB4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Y4"/>
   </ignoredErrors>
 </worksheet>
 </file>